--- a/Code/Results/Cases/Case_4_143/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_143/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.24873033918035</v>
+        <v>24.04021751172397</v>
       </c>
       <c r="C2">
-        <v>8.826843764126027</v>
+        <v>6.086104322368083</v>
       </c>
       <c r="D2">
-        <v>6.904452523683722</v>
+        <v>6.09197249722454</v>
       </c>
       <c r="E2">
-        <v>5.74022662663581</v>
+        <v>9.372883342665713</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.150618915351371</v>
+        <v>3.795915713121647</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.94209973130114</v>
+        <v>20.08986664291081</v>
       </c>
       <c r="L2">
-        <v>7.442172678767851</v>
+        <v>10.75746748680636</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.64838156927459</v>
+        <v>27.83292940279413</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.08653213645054</v>
+        <v>23.85119707969623</v>
       </c>
       <c r="C3">
-        <v>8.177550749141759</v>
+        <v>5.886702567013547</v>
       </c>
       <c r="D3">
-        <v>6.416262272631583</v>
+        <v>5.991341331905851</v>
       </c>
       <c r="E3">
-        <v>5.680767982240677</v>
+        <v>9.386260406253207</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.163366949651258</v>
+        <v>3.800186026044584</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.04458924136775</v>
+        <v>19.95689306740989</v>
       </c>
       <c r="L3">
-        <v>7.241000856433011</v>
+        <v>10.75416073945871</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.31637788857593</v>
+        <v>27.74130763278652</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.36283886913414</v>
+        <v>23.74111252507031</v>
       </c>
       <c r="C4">
-        <v>7.760545118290089</v>
+        <v>5.762968095838743</v>
       </c>
       <c r="D4">
-        <v>6.148070698390225</v>
+        <v>5.930679434801709</v>
       </c>
       <c r="E4">
-        <v>5.64738049645144</v>
+        <v>9.395849270376406</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.171344705368421</v>
+        <v>3.802941205902651</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.48777449143195</v>
+        <v>19.88025302162389</v>
       </c>
       <c r="L4">
-        <v>7.120887231337584</v>
+        <v>10.7542499524299</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.11637832869636</v>
+        <v>27.68588775791095</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.06564261682863</v>
+        <v>23.69779402995292</v>
       </c>
       <c r="C5">
-        <v>7.585889089769421</v>
+        <v>5.712307193898692</v>
       </c>
       <c r="D5">
-        <v>6.036983722986415</v>
+        <v>5.906275821393876</v>
       </c>
       <c r="E5">
-        <v>5.634540018566804</v>
+        <v>9.40010258033727</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.174637288285147</v>
+        <v>3.804097593294629</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.25962317840076</v>
+        <v>19.85030512080923</v>
       </c>
       <c r="L5">
-        <v>7.072810582101886</v>
+        <v>10.754819409846</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.0358093348185</v>
+        <v>27.66351879536738</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.01616423900433</v>
+        <v>23.69069524387651</v>
       </c>
       <c r="C6">
-        <v>7.556599245024495</v>
+        <v>5.703883326527391</v>
       </c>
       <c r="D6">
-        <v>6.018431469016173</v>
+        <v>5.902243709024802</v>
       </c>
       <c r="E6">
-        <v>5.632453520589298</v>
+        <v>9.400829720390695</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.175186634411113</v>
+        <v>3.804291645693322</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.22167050314728</v>
+        <v>19.84541049307359</v>
       </c>
       <c r="L6">
-        <v>7.064880537083484</v>
+        <v>10.7549461642131</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.02248626454863</v>
+        <v>27.65981757183428</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.35883963992511</v>
+        <v>23.74052202402721</v>
       </c>
       <c r="C7">
-        <v>7.758208909972978</v>
+        <v>5.762285707215841</v>
       </c>
       <c r="D7">
-        <v>6.146579721541508</v>
+        <v>5.93034899338044</v>
       </c>
       <c r="E7">
-        <v>5.647204252456327</v>
+        <v>9.395905232093025</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.171388937191934</v>
+        <v>3.8029566650047</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.4847023008477</v>
+        <v>19.87984390594673</v>
       </c>
       <c r="L7">
-        <v>7.12023530707121</v>
+        <v>10.75425547386577</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.11528801593176</v>
+        <v>27.68558520538879</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.85022952285373</v>
+        <v>23.97382778907017</v>
       </c>
       <c r="C8">
-        <v>8.606703043338046</v>
+        <v>6.017672168633765</v>
       </c>
       <c r="D8">
-        <v>6.735463177636471</v>
+        <v>6.057061364677553</v>
       </c>
       <c r="E8">
-        <v>5.719065777094109</v>
+        <v>9.377210286974771</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.15498559215955</v>
+        <v>3.79736055626106</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.63393114554214</v>
+        <v>20.04299379429827</v>
       </c>
       <c r="L8">
-        <v>7.372108808979102</v>
+        <v>10.75588754937755</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.53308368194542</v>
+        <v>27.80116759240299</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.6875778538281</v>
+        <v>24.47687421032802</v>
       </c>
       <c r="C9">
-        <v>10.13069721076945</v>
+        <v>6.504565516123921</v>
       </c>
       <c r="D9">
-        <v>7.90234220378786</v>
+        <v>6.312993237126757</v>
       </c>
       <c r="E9">
-        <v>5.885667402241285</v>
+        <v>9.351463900950655</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.123822385260698</v>
+        <v>3.787437136916314</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.83633941116757</v>
+        <v>20.4014638925118</v>
       </c>
       <c r="L9">
-        <v>7.892724132215469</v>
+        <v>10.77589124708599</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>23.38495085247884</v>
+        <v>28.0342446665679</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.71535869751571</v>
+        <v>24.87153778607586</v>
       </c>
       <c r="C10">
-        <v>11.17386537374489</v>
+        <v>6.849451466362471</v>
       </c>
       <c r="D10">
-        <v>8.696739143866756</v>
+        <v>6.503582468660117</v>
       </c>
       <c r="E10">
-        <v>6.025131400730982</v>
+        <v>9.339203523290429</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.101238044739468</v>
+        <v>3.780778044091863</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.42020250473884</v>
+        <v>20.68659347367799</v>
       </c>
       <c r="L10">
-        <v>8.291661725101855</v>
+        <v>10.8007982245894</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>24.03421758263732</v>
+        <v>28.20910699939145</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.62646188389206</v>
+        <v>25.05591062061714</v>
       </c>
       <c r="C11">
-        <v>11.63409915691856</v>
+        <v>7.002777178105789</v>
       </c>
       <c r="D11">
-        <v>9.045991430613322</v>
+        <v>6.590429777120375</v>
       </c>
       <c r="E11">
-        <v>6.092642705524871</v>
+        <v>9.335070725027325</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.090952215969519</v>
+        <v>3.777883922859787</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.13402493148184</v>
+        <v>20.82062690792077</v>
       </c>
       <c r="L11">
-        <v>8.476985875356663</v>
+        <v>10.81433340100223</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>24.33571547440019</v>
+        <v>28.2893755555659</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.97003546818739</v>
+        <v>25.12636960691606</v>
       </c>
       <c r="C12">
-        <v>11.80654258723868</v>
+        <v>7.060268523831398</v>
       </c>
       <c r="D12">
-        <v>9.176647247066411</v>
+        <v>6.62330461239726</v>
       </c>
       <c r="E12">
-        <v>6.118827899525479</v>
+        <v>9.33371332466788</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.087047702310171</v>
+        <v>3.776807281045161</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.403521877952</v>
+        <v>20.87196783139517</v>
       </c>
       <c r="L12">
-        <v>8.547757880875267</v>
+        <v>10.81977427831542</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>24.45087946454421</v>
+        <v>28.3198688070378</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.89610081054465</v>
+        <v>25.11116737792608</v>
       </c>
       <c r="C13">
-        <v>11.76948164981933</v>
+        <v>7.047912918806504</v>
       </c>
       <c r="D13">
-        <v>9.148576745286162</v>
+        <v>6.61622549911221</v>
       </c>
       <c r="E13">
-        <v>6.113160244815909</v>
+        <v>9.333996434438538</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.087889167868064</v>
+        <v>3.777038298905063</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.34551380017082</v>
+        <v>20.86088520771176</v>
       </c>
       <c r="L13">
-        <v>8.532488601670359</v>
+        <v>10.81858848995113</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>24.42603064554936</v>
+        <v>28.31329732077185</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.65475534994778</v>
+        <v>25.06169479468186</v>
       </c>
       <c r="C14">
-        <v>11.64832162009731</v>
+        <v>7.007518750119426</v>
       </c>
       <c r="D14">
-        <v>9.056771696501311</v>
+        <v>6.59313484505655</v>
       </c>
       <c r="E14">
-        <v>6.094784326280387</v>
+        <v>9.334954891108218</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.09063122825365</v>
+        <v>3.777794960868425</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.1562117524523</v>
+        <v>20.82483923950575</v>
       </c>
       <c r="L14">
-        <v>8.482796129638725</v>
+        <v>10.81477471467247</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>24.34516946063694</v>
+        <v>28.29188234270296</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.50674383152776</v>
+        <v>25.03147324222346</v>
       </c>
       <c r="C15">
-        <v>11.573875457462</v>
+        <v>6.982700364037439</v>
       </c>
       <c r="D15">
-        <v>9.000334930985311</v>
+        <v>6.578988568665705</v>
       </c>
       <c r="E15">
-        <v>6.083610448520968</v>
+        <v>9.335569004877934</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.092309332542953</v>
+        <v>3.778260947537682</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.04015876903197</v>
+        <v>20.80283516503252</v>
       </c>
       <c r="L15">
-        <v>8.452436913924538</v>
+        <v>10.81247968752534</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>24.29577268532601</v>
+        <v>28.27877751949839</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.65560177339195</v>
+        <v>24.859581292905</v>
       </c>
       <c r="C16">
-        <v>11.14351820848413</v>
+        <v>6.839354508597395</v>
       </c>
       <c r="D16">
-        <v>8.673682674193721</v>
+        <v>6.497906863443842</v>
       </c>
       <c r="E16">
-        <v>6.020804113446145</v>
+        <v>9.339502669637609</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.101909368045613</v>
+        <v>3.780969889580595</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.37342902402669</v>
+        <v>20.67791801688822</v>
       </c>
       <c r="L16">
-        <v>8.279630807199654</v>
+        <v>10.79995790134358</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>24.01464645493586</v>
+        <v>28.20387524191915</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.1306537839583</v>
+        <v>24.75533178308846</v>
       </c>
       <c r="C17">
-        <v>10.87599024655857</v>
+        <v>6.750460779846724</v>
       </c>
       <c r="D17">
-        <v>8.470284118434066</v>
+        <v>6.448179367331522</v>
       </c>
       <c r="E17">
-        <v>5.983339680594744</v>
+        <v>9.342285750712714</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.107790421840936</v>
+        <v>3.782666254026981</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.96278200197873</v>
+        <v>20.60236773092419</v>
       </c>
       <c r="L17">
-        <v>8.174628143654209</v>
+        <v>10.79283982145036</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>23.84382889421385</v>
+        <v>28.15810558878685</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.82763282663514</v>
+        <v>24.6958289957698</v>
       </c>
       <c r="C18">
-        <v>10.72075352208848</v>
+        <v>6.698998944301001</v>
       </c>
       <c r="D18">
-        <v>8.352143854445149</v>
+        <v>6.419593231953595</v>
       </c>
       <c r="E18">
-        <v>5.962171668397571</v>
+        <v>9.344022479578152</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.111172436960663</v>
+        <v>3.783654685327981</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.72594603564559</v>
+        <v>20.55932272366294</v>
       </c>
       <c r="L18">
-        <v>8.114591888374848</v>
+        <v>10.78895334008338</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>23.74614951397253</v>
+        <v>28.13184854070143</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.72484456512854</v>
+        <v>24.6757628190391</v>
       </c>
       <c r="C19">
-        <v>10.66795295084291</v>
+        <v>6.68151958754392</v>
       </c>
       <c r="D19">
-        <v>8.31194184353588</v>
+        <v>6.409918213109977</v>
       </c>
       <c r="E19">
-        <v>5.955068924234581</v>
+        <v>9.344633862613344</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.112317641746519</v>
+        <v>3.783991541168562</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.64564376155232</v>
+        <v>20.54481986071131</v>
       </c>
       <c r="L19">
-        <v>8.094325267508772</v>
+        <v>10.78767315417799</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>23.71317194821986</v>
+        <v>28.12297030989049</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.18664658474677</v>
+        <v>24.76638223327749</v>
       </c>
       <c r="C20">
-        <v>10.90460849165036</v>
+        <v>6.759958517180578</v>
       </c>
       <c r="D20">
-        <v>8.492054358363459</v>
+        <v>6.453471555099477</v>
       </c>
       <c r="E20">
-        <v>5.987288213419987</v>
+        <v>9.341975414864201</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.107164489368883</v>
+        <v>3.782484356869241</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.00656175363278</v>
+        <v>20.61036806701685</v>
       </c>
       <c r="L20">
-        <v>8.18576851591685</v>
+        <v>10.7935760733385</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>23.86195296473298</v>
+        <v>28.16297081007502</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.72568149420777</v>
+        <v>25.07620913674596</v>
       </c>
       <c r="C21">
-        <v>11.68395719591697</v>
+        <v>7.019399384819441</v>
       </c>
       <c r="D21">
-        <v>9.083779190835362</v>
+        <v>6.599917726534627</v>
       </c>
       <c r="E21">
-        <v>6.100164639083597</v>
+        <v>9.334667736116511</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.08982614408559</v>
+        <v>3.777572188194525</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.21183481866527</v>
+        <v>20.83541122595104</v>
       </c>
       <c r="L21">
-        <v>8.497375479248026</v>
+        <v>10.81588636767348</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>24.36889239451162</v>
+        <v>28.29816985444545</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.72328620149196</v>
+        <v>25.28240908468831</v>
       </c>
       <c r="C22">
-        <v>12.18272590687535</v>
+        <v>7.185615732990663</v>
       </c>
       <c r="D22">
-        <v>9.461271306057339</v>
+        <v>6.695542076987017</v>
       </c>
       <c r="E22">
-        <v>6.177571468830844</v>
+        <v>9.331101711117455</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.078434682500714</v>
+        <v>3.774474230317298</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.07814915654364</v>
+        <v>20.98588413959172</v>
       </c>
       <c r="L22">
-        <v>8.704522847783387</v>
+        <v>10.83230485796762</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>24.70606611543435</v>
+        <v>28.38709410111514</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.19151204551479</v>
+        <v>25.17203515387403</v>
       </c>
       <c r="C23">
-        <v>11.91741001569626</v>
+        <v>7.097226137901886</v>
       </c>
       <c r="D23">
-        <v>9.260588229096838</v>
+        <v>6.644524254556015</v>
       </c>
       <c r="E23">
-        <v>6.135912075164274</v>
+        <v>9.332894305681215</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.084522885022877</v>
+        <v>3.776117425399597</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.58586620401609</v>
+        <v>20.90527576953577</v>
       </c>
       <c r="L23">
-        <v>8.59362608626855</v>
+        <v>10.82337449687699</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>24.52553097331858</v>
+        <v>28.33958421522008</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.16133605688066</v>
+        <v>24.76138497613033</v>
       </c>
       <c r="C24">
-        <v>10.89167465750553</v>
+        <v>6.755665693485883</v>
       </c>
       <c r="D24">
-        <v>8.482215792857989</v>
+        <v>6.451078945529725</v>
       </c>
       <c r="E24">
-        <v>5.985501929360855</v>
+        <v>9.342115291907502</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.10744747000906</v>
+        <v>3.782566551546402</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.98677127274543</v>
+        <v>20.60674989797088</v>
       </c>
       <c r="L24">
-        <v>8.180730924890147</v>
+        <v>10.79324257272384</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>23.85375744236515</v>
+        <v>28.16077106693471</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.93001762219626</v>
+        <v>24.3361801629801</v>
       </c>
       <c r="C25">
-        <v>9.732549918857993</v>
+        <v>6.374813223184121</v>
       </c>
       <c r="D25">
-        <v>7.598186153276959</v>
+        <v>6.243165706148387</v>
       </c>
       <c r="E25">
-        <v>5.837710786041677</v>
+        <v>9.357260158617489</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.13217415211426</v>
+        <v>3.790010127781413</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.24656119174341</v>
+        <v>20.30053414650594</v>
       </c>
       <c r="L25">
-        <v>7.749043070452713</v>
+        <v>10.76868315925992</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>23.15068826079512</v>
+        <v>27.97053306643549</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_143/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_143/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04021751172397</v>
+        <v>22.24873033918038</v>
       </c>
       <c r="C2">
-        <v>6.086104322368083</v>
+        <v>8.826843764125995</v>
       </c>
       <c r="D2">
-        <v>6.09197249722454</v>
+        <v>6.904452523683761</v>
       </c>
       <c r="E2">
-        <v>9.372883342665713</v>
+        <v>5.74022662663581</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.795915713121647</v>
+        <v>2.150618915351498</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.08986664291081</v>
+        <v>17.94209973130114</v>
       </c>
       <c r="L2">
-        <v>10.75746748680636</v>
+        <v>7.44217267876785</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>27.83292940279413</v>
+        <v>22.64838156927468</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.85119707969623</v>
+        <v>21.08653213645057</v>
       </c>
       <c r="C3">
-        <v>5.886702567013547</v>
+        <v>8.177550749141741</v>
       </c>
       <c r="D3">
-        <v>5.991341331905851</v>
+        <v>6.416262272631569</v>
       </c>
       <c r="E3">
-        <v>9.386260406253207</v>
+        <v>5.68076798224061</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.800186026044584</v>
+        <v>2.163366949651119</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.95689306740989</v>
+        <v>17.04458924136777</v>
       </c>
       <c r="L3">
-        <v>10.75416073945871</v>
+        <v>7.241000856432946</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>27.74130763278652</v>
+        <v>22.31637788857581</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.74111252507031</v>
+        <v>20.36283886913405</v>
       </c>
       <c r="C4">
-        <v>5.762968095838743</v>
+        <v>7.760545118289949</v>
       </c>
       <c r="D4">
-        <v>5.930679434801709</v>
+        <v>6.148070698390248</v>
       </c>
       <c r="E4">
-        <v>9.395849270376406</v>
+        <v>5.64738049645157</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.802941205902651</v>
+        <v>2.17134470536816</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>19.88025302162389</v>
+        <v>16.48777449143191</v>
       </c>
       <c r="L4">
-        <v>10.7542499524299</v>
+        <v>7.120887231337658</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>27.68588775791095</v>
+        <v>22.11637832869627</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.69779402995292</v>
+        <v>20.06564261682865</v>
       </c>
       <c r="C5">
-        <v>5.712307193898692</v>
+        <v>7.585889089769513</v>
       </c>
       <c r="D5">
-        <v>5.906275821393876</v>
+        <v>6.036983722986398</v>
       </c>
       <c r="E5">
-        <v>9.40010258033727</v>
+        <v>5.634540018566891</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.804097593294629</v>
+        <v>2.174637288285273</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>19.85030512080923</v>
+        <v>16.25962317840075</v>
       </c>
       <c r="L5">
-        <v>10.754819409846</v>
+        <v>7.072810582101893</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>27.66351879536738</v>
+        <v>22.03580933481847</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.69069524387651</v>
+        <v>20.01616423900438</v>
       </c>
       <c r="C6">
-        <v>5.703883326527391</v>
+        <v>7.556599245024619</v>
       </c>
       <c r="D6">
-        <v>5.902243709024802</v>
+        <v>6.018431469016183</v>
       </c>
       <c r="E6">
-        <v>9.400829720390695</v>
+        <v>5.632453520589281</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.804291645693322</v>
+        <v>2.175186634411241</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>19.84541049307359</v>
+        <v>16.22167050314729</v>
       </c>
       <c r="L6">
-        <v>10.7549461642131</v>
+        <v>7.064880537083437</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>27.65981757183428</v>
+        <v>22.02248626454869</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.74052202402721</v>
+        <v>20.35883963992514</v>
       </c>
       <c r="C7">
-        <v>5.762285707215841</v>
+        <v>7.75820890997301</v>
       </c>
       <c r="D7">
-        <v>5.93034899338044</v>
+        <v>6.146579721541488</v>
       </c>
       <c r="E7">
-        <v>9.395905232093025</v>
+        <v>5.647204252456418</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.8029566650047</v>
+        <v>2.171388937191808</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>19.87984390594673</v>
+        <v>16.48470230084773</v>
       </c>
       <c r="L7">
-        <v>10.75425547386577</v>
+        <v>7.120235307071267</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>27.68558520538879</v>
+        <v>22.11528801593171</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.97382778907017</v>
+        <v>21.85022952285371</v>
       </c>
       <c r="C8">
-        <v>6.017672168633765</v>
+        <v>8.606703043337829</v>
       </c>
       <c r="D8">
-        <v>6.057061364677553</v>
+        <v>6.73546317763654</v>
       </c>
       <c r="E8">
-        <v>9.377210286974771</v>
+        <v>5.71906577709412</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.79736055626106</v>
+        <v>2.154985592159423</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.04299379429827</v>
+        <v>17.63393114554211</v>
       </c>
       <c r="L8">
-        <v>10.75588754937755</v>
+        <v>7.372108808979114</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>27.80116759240299</v>
+        <v>22.53308368194546</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.47687421032802</v>
+        <v>24.68757785382806</v>
       </c>
       <c r="C9">
-        <v>6.504565516123921</v>
+        <v>10.13069721076942</v>
       </c>
       <c r="D9">
-        <v>6.312993237126757</v>
+        <v>7.90234220378774</v>
       </c>
       <c r="E9">
-        <v>9.351463900950655</v>
+        <v>5.885667402241099</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.787437136916314</v>
+        <v>2.123822385260688</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.4014638925118</v>
+        <v>19.83633941116757</v>
       </c>
       <c r="L9">
-        <v>10.77589124708599</v>
+        <v>7.892724132215428</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.0342446665679</v>
+        <v>23.38495085247898</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.87153778607586</v>
+        <v>26.71535869751564</v>
       </c>
       <c r="C10">
-        <v>6.849451466362471</v>
+        <v>11.17386537374471</v>
       </c>
       <c r="D10">
-        <v>6.503582468660117</v>
+        <v>8.696739143866782</v>
       </c>
       <c r="E10">
-        <v>9.339203523290429</v>
+        <v>6.025131400730981</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.780778044091863</v>
+        <v>2.101238044739467</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.68659347367799</v>
+        <v>21.42020250473878</v>
       </c>
       <c r="L10">
-        <v>10.8007982245894</v>
+        <v>8.291661725101855</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>28.20910699939145</v>
+        <v>24.03421758263728</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.05591062061714</v>
+        <v>27.62646188389203</v>
       </c>
       <c r="C11">
-        <v>7.002777178105789</v>
+        <v>11.6340991569185</v>
       </c>
       <c r="D11">
-        <v>6.590429777120375</v>
+        <v>9.045991430613308</v>
       </c>
       <c r="E11">
-        <v>9.335070725027325</v>
+        <v>6.092642705524893</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.777883922859787</v>
+        <v>2.090952215969526</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.82062690792077</v>
+        <v>22.1340249314818</v>
       </c>
       <c r="L11">
-        <v>10.81433340100223</v>
+        <v>8.476985875356666</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>28.2893755555659</v>
+        <v>24.33571547440015</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.12636960691606</v>
+        <v>27.97003546818748</v>
       </c>
       <c r="C12">
-        <v>7.060268523831398</v>
+        <v>11.80654258723857</v>
       </c>
       <c r="D12">
-        <v>6.62330461239726</v>
+        <v>9.176647247066532</v>
       </c>
       <c r="E12">
-        <v>9.33371332466788</v>
+        <v>6.118827899525452</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.776807281045161</v>
+        <v>2.087047702309659</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.87196783139517</v>
+        <v>22.40352187795206</v>
       </c>
       <c r="L12">
-        <v>10.81977427831542</v>
+        <v>8.547757880875274</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>28.3198688070378</v>
+        <v>24.45087946454428</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.11116737792608</v>
+        <v>27.89610081054473</v>
       </c>
       <c r="C13">
-        <v>7.047912918806504</v>
+        <v>11.76948164981933</v>
       </c>
       <c r="D13">
-        <v>6.61622549911221</v>
+        <v>9.14857674528621</v>
       </c>
       <c r="E13">
-        <v>9.333996434438538</v>
+        <v>6.113160244815979</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.777038298905063</v>
+        <v>2.087889167868058</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.86088520771176</v>
+        <v>22.34551380017083</v>
       </c>
       <c r="L13">
-        <v>10.81858848995113</v>
+        <v>8.532488601670343</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>28.31329732077185</v>
+        <v>24.42603064554933</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.06169479468186</v>
+        <v>27.65475534994774</v>
       </c>
       <c r="C14">
-        <v>7.007518750119426</v>
+        <v>11.6483216200972</v>
       </c>
       <c r="D14">
-        <v>6.59313484505655</v>
+        <v>9.056771696501247</v>
       </c>
       <c r="E14">
-        <v>9.334954891108218</v>
+        <v>6.094784326280325</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.777794960868425</v>
+        <v>2.090631228253388</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.82483923950575</v>
+        <v>22.15621175245228</v>
       </c>
       <c r="L14">
-        <v>10.81477471467247</v>
+        <v>8.482796129638707</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>28.29188234270296</v>
+        <v>24.34516946063694</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.03147324222346</v>
+        <v>27.5067438315278</v>
       </c>
       <c r="C15">
-        <v>6.982700364037439</v>
+        <v>11.57387545746219</v>
       </c>
       <c r="D15">
-        <v>6.578988568665705</v>
+        <v>9.000334930985312</v>
       </c>
       <c r="E15">
-        <v>9.335569004877934</v>
+        <v>6.083610448520918</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.778260947537682</v>
+        <v>2.092309332543074</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.80283516503252</v>
+        <v>22.04015876903201</v>
       </c>
       <c r="L15">
-        <v>10.81247968752534</v>
+        <v>8.45243691392449</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>28.27877751949839</v>
+        <v>24.29577268532607</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.859581292905</v>
+        <v>26.65560177339194</v>
       </c>
       <c r="C16">
-        <v>6.839354508597395</v>
+        <v>11.14351820848413</v>
       </c>
       <c r="D16">
-        <v>6.497906863443842</v>
+        <v>8.673682674193611</v>
       </c>
       <c r="E16">
-        <v>9.339502669637609</v>
+        <v>6.020804113446062</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.780969889580595</v>
+        <v>2.101909368045738</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.67791801688822</v>
+        <v>21.37342902402667</v>
       </c>
       <c r="L16">
-        <v>10.79995790134358</v>
+        <v>8.279630807199613</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>28.20387524191915</v>
+        <v>24.01464645493589</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.75533178308846</v>
+        <v>26.13065378395832</v>
       </c>
       <c r="C17">
-        <v>6.750460779846724</v>
+        <v>10.87599024655875</v>
       </c>
       <c r="D17">
-        <v>6.448179367331522</v>
+        <v>8.470284118434082</v>
       </c>
       <c r="E17">
-        <v>9.342285750712714</v>
+        <v>5.983339680594919</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.782666254026981</v>
+        <v>2.107790421840676</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.60236773092419</v>
+        <v>20.96278200197876</v>
       </c>
       <c r="L17">
-        <v>10.79283982145036</v>
+        <v>8.174628143654239</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>28.15810558878685</v>
+        <v>23.84382889421379</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.6958289957698</v>
+        <v>25.82763282663516</v>
       </c>
       <c r="C18">
-        <v>6.698998944301001</v>
+        <v>10.72075352208851</v>
       </c>
       <c r="D18">
-        <v>6.419593231953595</v>
+        <v>8.35214385444521</v>
       </c>
       <c r="E18">
-        <v>9.344022479578152</v>
+        <v>5.96217166839759</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.783654685327981</v>
+        <v>2.111172436960659</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.55932272366294</v>
+        <v>20.72594603564561</v>
       </c>
       <c r="L18">
-        <v>10.78895334008338</v>
+        <v>8.114591888374887</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>28.13184854070143</v>
+        <v>23.74614951397243</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.6757628190391</v>
+        <v>25.72484456512853</v>
       </c>
       <c r="C19">
-        <v>6.68151958754392</v>
+        <v>10.66795295084295</v>
       </c>
       <c r="D19">
-        <v>6.409918213109977</v>
+        <v>8.311941843535834</v>
       </c>
       <c r="E19">
-        <v>9.344633862613344</v>
+        <v>5.955068924234504</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.783991541168562</v>
+        <v>2.112317641746254</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.54481986071131</v>
+        <v>20.6456437615523</v>
       </c>
       <c r="L19">
-        <v>10.78767315417799</v>
+        <v>8.094325267508713</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>28.12297030989049</v>
+        <v>23.71317194821987</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.76638223327749</v>
+        <v>26.18664658474674</v>
       </c>
       <c r="C20">
-        <v>6.759958517180578</v>
+        <v>10.90460849165041</v>
       </c>
       <c r="D20">
-        <v>6.453471555099477</v>
+        <v>8.492054358363584</v>
       </c>
       <c r="E20">
-        <v>9.341975414864201</v>
+        <v>5.987288213419972</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.782484356869241</v>
+        <v>2.107164489369012</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.61036806701685</v>
+        <v>21.00656175363278</v>
       </c>
       <c r="L20">
-        <v>10.7935760733385</v>
+        <v>8.18576851591685</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>28.16297081007502</v>
+        <v>23.86195296473291</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.07620913674596</v>
+        <v>27.72568149420773</v>
       </c>
       <c r="C21">
-        <v>7.019399384819441</v>
+        <v>11.68395719591689</v>
       </c>
       <c r="D21">
-        <v>6.599917726534627</v>
+        <v>9.083779190835378</v>
       </c>
       <c r="E21">
-        <v>9.334667736116511</v>
+        <v>6.100164639083533</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.777572188194525</v>
+        <v>2.089826144085337</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.83541122595104</v>
+        <v>22.21183481866525</v>
       </c>
       <c r="L21">
-        <v>10.81588636767348</v>
+        <v>8.497375479247999</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>28.29816985444545</v>
+        <v>24.36889239451153</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.28240908468831</v>
+        <v>28.72328620149204</v>
       </c>
       <c r="C22">
-        <v>7.185615732990663</v>
+        <v>12.18272590687546</v>
       </c>
       <c r="D22">
-        <v>6.695542076987017</v>
+        <v>9.461271306057464</v>
       </c>
       <c r="E22">
-        <v>9.331101711117455</v>
+        <v>6.177571468830821</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.774474230317298</v>
+        <v>2.078434682500583</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.98588413959172</v>
+        <v>23.07814915654371</v>
       </c>
       <c r="L22">
-        <v>10.83230485796762</v>
+        <v>8.704522847783341</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>28.38709410111514</v>
+        <v>24.70606611543438</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.17203515387403</v>
+        <v>28.19151204551481</v>
       </c>
       <c r="C23">
-        <v>7.097226137901886</v>
+        <v>11.91741001569611</v>
       </c>
       <c r="D23">
-        <v>6.644524254556015</v>
+        <v>9.260588229096872</v>
       </c>
       <c r="E23">
-        <v>9.332894305681215</v>
+        <v>6.135912075164267</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.776117425399597</v>
+        <v>2.084522885023008</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.90527576953577</v>
+        <v>22.58586620401615</v>
       </c>
       <c r="L23">
-        <v>10.82337449687699</v>
+        <v>8.593626086268584</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>28.33958421522008</v>
+        <v>24.52553097331857</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.76138497613033</v>
+        <v>26.16133605688065</v>
       </c>
       <c r="C24">
-        <v>6.755665693485883</v>
+        <v>10.89167465750562</v>
       </c>
       <c r="D24">
-        <v>6.451078945529725</v>
+        <v>8.482215792858094</v>
       </c>
       <c r="E24">
-        <v>9.342115291907502</v>
+        <v>5.985501929360777</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.782566551546402</v>
+        <v>2.107447470008803</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.60674989797088</v>
+        <v>20.98677127274543</v>
       </c>
       <c r="L24">
-        <v>10.79324257272384</v>
+        <v>8.180730924890097</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>28.16077106693471</v>
+        <v>23.85375744236516</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.3361801629801</v>
+        <v>23.93001762219627</v>
       </c>
       <c r="C25">
-        <v>6.374813223184121</v>
+        <v>9.732549918858011</v>
       </c>
       <c r="D25">
-        <v>6.243165706148387</v>
+        <v>7.598186153276901</v>
       </c>
       <c r="E25">
-        <v>9.357260158617489</v>
+        <v>5.837710786041665</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.790010127781413</v>
+        <v>2.132174152113993</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.30053414650594</v>
+        <v>19.24656119174342</v>
       </c>
       <c r="L25">
-        <v>10.76868315925992</v>
+        <v>7.74904307045272</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.97053306643549</v>
+        <v>23.15068826079515</v>
       </c>
       <c r="O25">
         <v>0</v>
